--- a/data/trans_orig/DCD-Edad-trans_orig.xlsx
+++ b/data/trans_orig/DCD-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3CE8D8D-9A41-45C5-AC95-6ECCF835D55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D711001-4ACC-405A-AAA2-DE7846C73F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A47EF960-BD91-463E-81E9-BBD3F959560A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AF7BEFCD-DB1B-4932-900A-F51099FB4420}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="415">
   <si>
     <t>Población con dolor crónico discapacitante en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -209,172 +209,172 @@
     <t>1,21%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
+    <t>2,83%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>2,03%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
   </si>
   <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
   </si>
   <si>
     <t>95,72%</t>
   </si>
   <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>88,24%</t>
   </si>
   <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>91,91%</t>
   </si>
   <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
   </si>
   <si>
     <t>10,55%</t>
@@ -383,28 +383,28 @@
     <t>8,89%</t>
   </si>
   <si>
-    <t>12,4%</t>
+    <t>12,48%</t>
   </si>
   <si>
     <t>93,38%</t>
   </si>
   <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
   </si>
   <si>
     <t>89,45%</t>
   </si>
   <si>
-    <t>87,6%</t>
+    <t>87,52%</t>
   </si>
   <si>
     <t>91,11%</t>
@@ -413,499 +413,505 @@
     <t>8,69%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
   </si>
   <si>
     <t>21,39%</t>
   </si>
   <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>12,96%</t>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico discapacitante en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
   </si>
   <si>
     <t>17,86%</t>
   </si>
   <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
   </si>
   <si>
     <t>82,14%</t>
   </si>
   <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
   </si>
   <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico discapacitante en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
+    <t>88,19%</t>
   </si>
   <si>
     <t>90,05%</t>
@@ -914,7 +920,7 @@
     <t>89,29%</t>
   </si>
   <si>
-    <t>90,75%</t>
+    <t>90,76%</t>
   </si>
   <si>
     <t>Población con dolor crónico discapacitante en 2023 (Tasa respuesta: 100,0%)</t>
@@ -923,64 +929,70 @@
     <t>1,78%</t>
   </si>
   <si>
-    <t>4,87%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
   </si>
   <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
   </si>
   <si>
     <t>8,59%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
   </si>
   <si>
     <t>98,22%</t>
   </si>
   <si>
-    <t>95,13%</t>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
   </si>
   <si>
     <t>84,16%</t>
   </si>
   <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
   </si>
   <si>
     <t>91,41%</t>
   </si>
   <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
   </si>
   <si>
     <t>4,66%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
   </si>
   <si>
     <t>13,97%</t>
   </si>
   <si>
-    <t>10,68%</t>
+    <t>10,81%</t>
   </si>
   <si>
     <t>17,85%</t>
@@ -989,19 +1001,16 @@
     <t>9,67%</t>
   </si>
   <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
+    <t>12,29%</t>
   </si>
   <si>
     <t>95,34%</t>
   </si>
   <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
   </si>
   <si>
     <t>86,03%</t>
@@ -1010,286 +1019,271 @@
     <t>82,15%</t>
   </si>
   <si>
-    <t>89,32%</t>
+    <t>89,19%</t>
   </si>
   <si>
     <t>90,33%</t>
   </si>
   <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
+    <t>87,71%</t>
   </si>
   <si>
     <t>7,55%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
   </si>
   <si>
     <t>16,55%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
   </si>
   <si>
     <t>12,25%</t>
   </si>
   <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
+    <t>14,15%</t>
   </si>
   <si>
     <t>92,45%</t>
   </si>
   <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
   </si>
   <si>
     <t>83,45%</t>
   </si>
   <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
   </si>
   <si>
     <t>87,75%</t>
   </si>
   <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
+    <t>85,85%</t>
   </si>
   <si>
     <t>13,11%</t>
   </si>
   <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
   </si>
   <si>
     <t>24,55%</t>
   </si>
   <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
   </si>
   <si>
     <t>18,92%</t>
   </si>
   <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
   </si>
   <si>
     <t>86,89%</t>
   </si>
   <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
   </si>
   <si>
     <t>75,45%</t>
   </si>
   <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
   </si>
   <si>
     <t>81,08%</t>
   </si>
   <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
   </si>
   <si>
     <t>20,12%</t>
   </si>
   <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
   </si>
   <si>
     <t>31,72%</t>
   </si>
   <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
   </si>
   <si>
     <t>25,91%</t>
   </si>
   <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
   </si>
   <si>
     <t>79,88%</t>
   </si>
   <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
   </si>
   <si>
     <t>68,28%</t>
   </si>
   <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
   </si>
   <si>
     <t>74,09%</t>
   </si>
   <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
   </si>
   <si>
     <t>23,43%</t>
   </si>
   <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
   </si>
   <si>
     <t>37,66%</t>
   </si>
   <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
   </si>
   <si>
     <t>31,9%</t>
   </si>
   <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
+    <t>34,81%</t>
   </si>
   <si>
     <t>76,57%</t>
   </si>
   <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
   </si>
   <si>
     <t>62,34%</t>
   </si>
   <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
   </si>
   <si>
     <t>68,1%</t>
   </si>
   <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
+    <t>65,19%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
   </si>
   <si>
     <t>25,72%</t>
   </si>
   <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
   </si>
   <si>
     <t>19,86%</t>
   </si>
   <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
   </si>
   <si>
     <t>86,77%</t>
   </si>
   <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
   </si>
   <si>
     <t>74,28%</t>
   </si>
   <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
   </si>
   <si>
     <t>80,14%</t>
   </si>
   <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
   </si>
 </sst>
 </file>
@@ -1701,7 +1695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1E6981-9E62-4448-B9FC-5DE877AF8F3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3A7E31-55DA-4F7B-AA84-D0E59AADB146}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2833,7 +2827,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
@@ -2884,7 +2878,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -2920,7 +2914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C985B8AF-FC9C-4484-8C16-191FE3DB6B5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C38228-08FF-4296-94C9-D0CAA4A132A9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3047,10 +3041,10 @@
         <v>55</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -3059,13 +3053,13 @@
         <v>20716</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -3074,13 +3068,13 @@
         <v>26225</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,13 +3089,13 @@
         <v>448637</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="H5" s="7">
         <v>401</v>
@@ -3110,13 +3104,13 @@
         <v>409514</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M5" s="7">
         <v>842</v>
@@ -3125,13 +3119,13 @@
         <v>858151</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,13 +3193,13 @@
         <v>18698</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -3214,13 +3208,13 @@
         <v>41271</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -3229,13 +3223,13 @@
         <v>59969</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,13 +3244,13 @@
         <v>668389</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H8" s="7">
         <v>533</v>
@@ -3265,13 +3259,13 @@
         <v>568984</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M8" s="7">
         <v>1182</v>
@@ -3280,13 +3274,13 @@
         <v>1237373</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,13 +3348,13 @@
         <v>29160</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H10" s="7">
         <v>79</v>
@@ -3369,13 +3363,13 @@
         <v>83566</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M10" s="7">
         <v>107</v>
@@ -3384,13 +3378,13 @@
         <v>112726</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,7 +3399,7 @@
         <v>652703</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>99</v>
@@ -3524,10 +3518,10 @@
         <v>89128</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>111</v>
@@ -3575,13 +3569,13 @@
         <v>527071</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>970</v>
@@ -4139,7 +4133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5C09E6-212E-461B-8F46-5582EB5C4FF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C805D247-FD1A-4DBA-BC25-8F5C10EB779D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4281,10 +4275,10 @@
         <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4293,13 +4287,13 @@
         <v>15532</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>184</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,10 +4308,10 @@
         <v>417473</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -4329,13 +4323,13 @@
         <v>382213</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="M5" s="7">
         <v>781</v>
@@ -4344,13 +4338,13 @@
         <v>799686</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,13 +4412,13 @@
         <v>17858</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>194</v>
+        <v>58</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -4436,10 +4430,10 @@
         <v>107</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="M7" s="7">
         <v>53</v>
@@ -4448,13 +4442,13 @@
         <v>55191</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,13 +4463,13 @@
         <v>572638</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="H8" s="7">
         <v>541</v>
@@ -4487,10 +4481,10 @@
         <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M8" s="7">
         <v>1093</v>
@@ -4499,13 +4493,13 @@
         <v>1098849</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,13 +4567,13 @@
         <v>25487</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -4588,13 +4582,13 @@
         <v>58964</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
@@ -4603,13 +4597,13 @@
         <v>84450</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,13 +4618,13 @@
         <v>643610</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H11" s="7">
         <v>606</v>
@@ -4639,13 +4633,13 @@
         <v>602422</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M11" s="7">
         <v>1221</v>
@@ -4654,13 +4648,13 @@
         <v>1246033</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,13 +4722,13 @@
         <v>41756</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -4743,13 +4737,13 @@
         <v>83622</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M13" s="7">
         <v>115</v>
@@ -4758,13 +4752,13 @@
         <v>125378</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +4773,13 @@
         <v>604292</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H14" s="7">
         <v>525</v>
@@ -4794,28 +4788,28 @@
         <v>565455</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M14" s="7">
         <v>1069</v>
       </c>
       <c r="N14" s="7">
-        <v>1169747</v>
+        <v>1169748</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4857,7 +4851,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4883,13 +4877,13 @@
         <v>58172</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H16" s="7">
         <v>78</v>
@@ -4898,13 +4892,13 @@
         <v>88759</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M16" s="7">
         <v>128</v>
@@ -4913,13 +4907,13 @@
         <v>146931</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,13 +4928,13 @@
         <v>419746</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H17" s="7">
         <v>355</v>
@@ -4949,7 +4943,7 @@
         <v>408090</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>139</v>
+        <v>252</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>253</v>
@@ -5214,7 +5208,7 @@
         <v>280</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>142</v>
+        <v>281</v>
       </c>
       <c r="M22" s="7">
         <v>633</v>
@@ -5223,13 +5217,13 @@
         <v>690530</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,13 +5238,13 @@
         <v>3166324</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H23" s="7">
         <v>2922</v>
@@ -5259,13 +5253,13 @@
         <v>3082038</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>152</v>
+        <v>289</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M23" s="7">
         <v>5936</v>
@@ -5274,13 +5268,13 @@
         <v>6248362</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,7 +5352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88E19E2-026C-4760-8B5A-554AFC8AC92C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21FBF70-0704-4C4E-97F8-6046C635803A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5375,7 +5369,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5482,13 +5476,13 @@
         <v>6719</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -5497,13 +5491,13 @@
         <v>56210</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -5512,13 +5506,13 @@
         <v>62929</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,13 +5527,13 @@
         <v>370960</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="H5" s="7">
         <v>177</v>
@@ -5548,13 +5542,13 @@
         <v>298747</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M5" s="7">
         <v>346</v>
@@ -5563,13 +5557,13 @@
         <v>669707</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,13 +5631,13 @@
         <v>19961</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H7" s="7">
         <v>61</v>
@@ -5652,13 +5646,13 @@
         <v>69731</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M7" s="7">
         <v>77</v>
@@ -5667,13 +5661,13 @@
         <v>89692</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>316</v>
+        <v>161</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,13 +5682,13 @@
         <v>408435</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H8" s="7">
         <v>400</v>
@@ -5703,13 +5697,13 @@
         <v>429484</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M8" s="7">
         <v>686</v>
@@ -5718,13 +5712,13 @@
         <v>837919</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>326</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,13 +5786,13 @@
         <v>42074</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H10" s="7">
         <v>150</v>
@@ -5807,13 +5801,13 @@
         <v>101005</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M10" s="7">
         <v>188</v>
@@ -5822,13 +5816,13 @@
         <v>143078</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>334</v>
+        <v>112</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +5837,13 @@
         <v>515178</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H11" s="7">
         <v>698</v>
@@ -5858,13 +5852,13 @@
         <v>509442</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M11" s="7">
         <v>1206</v>
@@ -5873,13 +5867,13 @@
         <v>1024621</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>344</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6025,7 +6019,7 @@
         <v>1435</v>
       </c>
       <c r="N14" s="7">
-        <v>1192914</v>
+        <v>1192913</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>360</v>
@@ -6076,7 +6070,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -6290,10 +6284,10 @@
         <v>387</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6305,16 +6299,16 @@
         <v>781</v>
       </c>
       <c r="D20" s="7">
-        <v>534287</v>
+        <v>534288</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="H20" s="7">
         <v>991</v>
@@ -6323,13 +6317,13 @@
         <v>640016</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="M20" s="7">
         <v>1772</v>
@@ -6338,13 +6332,13 @@
         <v>1174304</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>397</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6356,7 +6350,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -6412,13 +6406,13 @@
         <v>447869</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="H22" s="7">
         <v>1548</v>
@@ -6427,13 +6421,13 @@
         <v>986402</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="M22" s="7">
         <v>2072</v>
@@ -6442,13 +6436,13 @@
         <v>1434271</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6463,13 +6457,13 @@
         <v>2937359</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="H23" s="7">
         <v>3819</v>
@@ -6478,28 +6472,28 @@
         <v>2849179</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M23" s="7">
         <v>6671</v>
       </c>
       <c r="N23" s="7">
-        <v>5786538</v>
+        <v>5786537</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6541,7 +6535,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/DCD-Edad-trans_orig.xlsx
+++ b/data/trans_orig/DCD-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D711001-4ACC-405A-AAA2-DE7846C73F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32494D89-5933-4399-88C7-33B54A7B7460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AF7BEFCD-DB1B-4932-900A-F51099FB4420}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6A4B384B-A366-4C5D-85F6-352EB57C4FAF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="413">
   <si>
     <t>Población con dolor crónico discapacitante en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -209,823 +209,817 @@
     <t>1,21%</t>
   </si>
   <si>
-    <t>2,83%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico discapacitante en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
     <t>3,02%</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
   </si>
   <si>
     <t>96,98%</t>
   </si>
   <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico discapacitante en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
   </si>
   <si>
     <t>7,59%</t>
   </si>
   <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
   </si>
   <si>
     <t>92,41%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico discapacitante en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico discapacitante en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
   </si>
   <si>
     <t>7,55%</t>
@@ -1695,7 +1689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3A7E31-55DA-4F7B-AA84-D0E59AADB146}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341E16D5-248D-45CE-8E11-3A656C934466}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2797,7 +2791,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -2848,7 +2842,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -2914,7 +2908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C38228-08FF-4296-94C9-D0CAA4A132A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F469F6-B319-4CE5-8F51-A668B6A82977}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3041,10 +3035,10 @@
         <v>55</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -3053,13 +3047,13 @@
         <v>20716</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -3068,13 +3062,13 @@
         <v>26225</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,13 +3083,13 @@
         <v>448637</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="H5" s="7">
         <v>401</v>
@@ -3104,13 +3098,13 @@
         <v>409514</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M5" s="7">
         <v>842</v>
@@ -3119,13 +3113,13 @@
         <v>858151</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,13 +3187,13 @@
         <v>18698</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -3208,13 +3202,13 @@
         <v>41271</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -3223,13 +3217,13 @@
         <v>59969</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,13 +3238,13 @@
         <v>668389</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H8" s="7">
         <v>533</v>
@@ -3259,13 +3253,13 @@
         <v>568984</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M8" s="7">
         <v>1182</v>
@@ -3274,13 +3268,13 @@
         <v>1237373</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,13 +3342,13 @@
         <v>29160</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H10" s="7">
         <v>79</v>
@@ -3363,13 +3357,13 @@
         <v>83566</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M10" s="7">
         <v>107</v>
@@ -3378,13 +3372,13 @@
         <v>112726</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,13 +3393,13 @@
         <v>652703</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H11" s="7">
         <v>588</v>
@@ -3414,13 +3408,13 @@
         <v>627284</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M11" s="7">
         <v>1211</v>
@@ -3429,13 +3423,13 @@
         <v>1279986</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,13 +3497,13 @@
         <v>40662</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="H13" s="7">
         <v>80</v>
@@ -3518,13 +3512,13 @@
         <v>89128</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M13" s="7">
         <v>117</v>
@@ -3533,13 +3527,13 @@
         <v>129791</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,13 +3548,13 @@
         <v>573955</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H14" s="7">
         <v>459</v>
@@ -3569,13 +3563,13 @@
         <v>527071</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M14" s="7">
         <v>970</v>
@@ -3584,13 +3578,13 @@
         <v>1101025</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,13 +3652,13 @@
         <v>37310</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -3673,13 +3667,13 @@
         <v>95792</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M16" s="7">
         <v>124</v>
@@ -3688,13 +3682,13 @@
         <v>133102</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,13 +3703,13 @@
         <v>392119</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H17" s="7">
         <v>318</v>
@@ -3724,13 +3718,13 @@
         <v>352008</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M17" s="7">
         <v>675</v>
@@ -3739,13 +3733,13 @@
         <v>744127</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3807,13 @@
         <v>96930</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H19" s="7">
         <v>231</v>
@@ -3828,13 +3822,13 @@
         <v>249761</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M19" s="7">
         <v>319</v>
@@ -3843,13 +3837,13 @@
         <v>346691</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,13 +3858,13 @@
         <v>462707</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H20" s="7">
         <v>463</v>
@@ -3879,13 +3873,13 @@
         <v>493214</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M20" s="7">
         <v>879</v>
@@ -3894,13 +3888,13 @@
         <v>955921</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,13 +3962,13 @@
         <v>228270</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H22" s="7">
         <v>536</v>
@@ -3983,13 +3977,13 @@
         <v>580234</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M22" s="7">
         <v>748</v>
@@ -3998,13 +3992,13 @@
         <v>808504</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,13 +4013,13 @@
         <v>3198509</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H23" s="7">
         <v>2762</v>
@@ -4034,13 +4028,13 @@
         <v>2978075</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M23" s="7">
         <v>5759</v>
@@ -4049,13 +4043,13 @@
         <v>6176584</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,7 +4127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C805D247-FD1A-4DBA-BC25-8F5C10EB779D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8C97A1-3BB3-4362-8A6F-9739C2CC649C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4150,7 +4144,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4257,13 +4251,13 @@
         <v>1990</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -4272,13 +4266,13 @@
         <v>13542</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4287,13 +4281,13 @@
         <v>15532</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,10 +4302,10 @@
         <v>417473</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -4323,13 +4317,13 @@
         <v>382213</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="M5" s="7">
         <v>781</v>
@@ -4338,13 +4332,13 @@
         <v>799686</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,13 +4406,13 @@
         <v>17858</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -4427,13 +4421,13 @@
         <v>37334</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M7" s="7">
         <v>53</v>
@@ -4442,13 +4436,13 @@
         <v>55191</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>194</v>
+        <v>110</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,13 +4457,13 @@
         <v>572638</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H8" s="7">
         <v>541</v>
@@ -4478,13 +4472,13 @@
         <v>526210</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M8" s="7">
         <v>1093</v>
@@ -4493,13 +4487,13 @@
         <v>1098849</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,13 +4561,13 @@
         <v>25487</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -4582,13 +4576,13 @@
         <v>58964</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
@@ -4597,13 +4591,13 @@
         <v>84450</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,13 +4612,13 @@
         <v>643610</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H11" s="7">
         <v>606</v>
@@ -4633,13 +4627,13 @@
         <v>602422</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M11" s="7">
         <v>1221</v>
@@ -4648,13 +4642,13 @@
         <v>1246033</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4716,13 @@
         <v>41756</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -4737,13 +4731,13 @@
         <v>83622</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M13" s="7">
         <v>115</v>
@@ -4752,13 +4746,13 @@
         <v>125378</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,10 +4767,10 @@
         <v>604292</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>232</v>
+        <v>134</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>233</v>
@@ -4800,7 +4794,7 @@
         <v>1069</v>
       </c>
       <c r="N14" s="7">
-        <v>1169748</v>
+        <v>1169747</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>237</v>
@@ -4851,7 +4845,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5035,10 +5029,10 @@
         <v>258</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H19" s="7">
         <v>150</v>
@@ -5047,13 +5041,13 @@
         <v>180283</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M19" s="7">
         <v>239</v>
@@ -5062,13 +5056,13 @@
         <v>263048</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5077,13 @@
         <v>508564</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>268</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="H20" s="7">
         <v>505</v>
@@ -5098,13 +5092,13 @@
         <v>597648</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M20" s="7">
         <v>1043</v>
@@ -5113,13 +5107,13 @@
         <v>1106211</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5181,13 @@
         <v>228026</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H22" s="7">
         <v>416</v>
@@ -5202,13 +5196,13 @@
         <v>462504</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M22" s="7">
         <v>633</v>
@@ -5217,13 +5211,13 @@
         <v>690530</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5232,13 @@
         <v>3166324</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H23" s="7">
         <v>2922</v>
@@ -5253,13 +5247,13 @@
         <v>3082038</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M23" s="7">
         <v>5936</v>
@@ -5268,13 +5262,13 @@
         <v>6248362</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,7 +5346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21FBF70-0704-4C4E-97F8-6046C635803A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56C1DE6-4497-427D-AB97-EE9C71E6760D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5369,7 +5363,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5476,13 +5470,13 @@
         <v>6719</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -5491,13 +5485,13 @@
         <v>56210</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -5506,13 +5500,13 @@
         <v>62929</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,13 +5521,13 @@
         <v>370960</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H5" s="7">
         <v>177</v>
@@ -5542,13 +5536,13 @@
         <v>298747</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M5" s="7">
         <v>346</v>
@@ -5557,13 +5551,13 @@
         <v>669707</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>312</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,13 +5625,13 @@
         <v>19961</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H7" s="7">
         <v>61</v>
@@ -5646,13 +5640,13 @@
         <v>69731</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M7" s="7">
         <v>77</v>
@@ -5661,13 +5655,13 @@
         <v>89692</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>161</v>
+        <v>316</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5676,13 @@
         <v>408435</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H8" s="7">
         <v>400</v>
@@ -5697,13 +5691,13 @@
         <v>429484</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M8" s="7">
         <v>686</v>
@@ -5712,13 +5706,13 @@
         <v>837919</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>169</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,13 +5780,13 @@
         <v>42074</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H10" s="7">
         <v>150</v>
@@ -5801,13 +5795,13 @@
         <v>101005</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M10" s="7">
         <v>188</v>
@@ -5816,13 +5810,13 @@
         <v>143078</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5831,13 @@
         <v>515178</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H11" s="7">
         <v>698</v>
@@ -5852,13 +5846,13 @@
         <v>509442</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M11" s="7">
         <v>1206</v>
@@ -5867,13 +5861,13 @@
         <v>1024621</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,13 +5935,13 @@
         <v>94918</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H13" s="7">
         <v>281</v>
@@ -5956,13 +5950,13 @@
         <v>183420</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M13" s="7">
         <v>371</v>
@@ -5971,13 +5965,13 @@
         <v>278338</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,13 +5986,13 @@
         <v>629072</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H14" s="7">
         <v>860</v>
@@ -6007,13 +6001,13 @@
         <v>563841</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M14" s="7">
         <v>1435</v>
@@ -6022,13 +6016,13 @@
         <v>1192913</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6096,13 +6090,13 @@
         <v>120731</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="H16" s="7">
         <v>309</v>
@@ -6111,13 +6105,13 @@
         <v>189416</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M16" s="7">
         <v>439</v>
@@ -6126,13 +6120,13 @@
         <v>310147</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,13 +6141,13 @@
         <v>479426</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H17" s="7">
         <v>693</v>
@@ -6162,13 +6156,13 @@
         <v>407647</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M17" s="7">
         <v>1226</v>
@@ -6177,13 +6171,13 @@
         <v>887073</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6251,13 +6245,13 @@
         <v>163467</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="H19" s="7">
         <v>717</v>
@@ -6266,13 +6260,13 @@
         <v>386621</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M19" s="7">
         <v>964</v>
@@ -6281,13 +6275,13 @@
         <v>550088</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6302,13 +6296,13 @@
         <v>534288</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="H20" s="7">
         <v>991</v>
@@ -6317,13 +6311,13 @@
         <v>640016</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M20" s="7">
         <v>1772</v>
@@ -6332,13 +6326,13 @@
         <v>1174304</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6406,13 +6400,13 @@
         <v>447869</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H22" s="7">
         <v>1548</v>
@@ -6421,13 +6415,13 @@
         <v>986402</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M22" s="7">
         <v>2072</v>
@@ -6436,13 +6430,13 @@
         <v>1434271</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6457,13 +6451,13 @@
         <v>2937359</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H23" s="7">
         <v>3819</v>
@@ -6472,13 +6466,13 @@
         <v>2849179</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M23" s="7">
         <v>6671</v>
@@ -6487,13 +6481,13 @@
         <v>5786537</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/DCD-Edad-trans_orig.xlsx
+++ b/data/trans_orig/DCD-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32494D89-5933-4399-88C7-33B54A7B7460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{890CBA2C-A66D-479C-959F-993D5649ADD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6A4B384B-A366-4C5D-85F6-352EB57C4FAF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1DC8EEAA-AC33-438E-A1C7-DA3CDBE843AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="417">
   <si>
     <t>Población con dolor crónico discapacitante en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -209,1075 +209,1087 @@
     <t>1,21%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
   </si>
   <si>
     <t>98,79%</t>
   </si>
   <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
   <si>
     <t>95,18%</t>
   </si>
   <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
   </si>
   <si>
     <t>97,03%</t>
   </si>
   <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
   </si>
   <si>
     <t>97,28%</t>
   </si>
   <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
   </si>
   <si>
     <t>93,24%</t>
   </si>
   <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
   </si>
   <si>
     <t>95,38%</t>
   </si>
   <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
   </si>
   <si>
     <t>11,76%</t>
   </si>
   <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
   </si>
   <si>
     <t>8,09%</t>
   </si>
   <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
   </si>
   <si>
     <t>88,24%</t>
   </si>
   <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>91,91%</t>
   </si>
   <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico discapacitante en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
   </si>
   <si>
     <t>95,22%</t>
   </si>
   <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico discapacitante en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico discapacitante en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
   </si>
   <si>
     <t>93,85%</t>
   </si>
   <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
   </si>
   <si>
     <t>10,68%</t>
   </si>
   <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
   </si>
   <si>
     <t>89,32%</t>
   </si>
   <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico discapacitante en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
     <t>90,33%</t>
   </si>
   <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
   </si>
   <si>
     <t>7,55%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
   </si>
   <si>
     <t>16,55%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
   </si>
   <si>
     <t>12,25%</t>
   </si>
   <si>
-    <t>14,15%</t>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
   </si>
   <si>
     <t>92,45%</t>
   </si>
   <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
   </si>
   <si>
     <t>83,45%</t>
   </si>
   <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
   </si>
   <si>
     <t>87,75%</t>
   </si>
   <si>
-    <t>85,85%</t>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
   <si>
     <t>13,11%</t>
   </si>
   <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
   </si>
   <si>
     <t>24,55%</t>
   </si>
   <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
   </si>
   <si>
     <t>18,92%</t>
   </si>
   <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
   </si>
   <si>
     <t>86,89%</t>
   </si>
   <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
   </si>
   <si>
     <t>75,45%</t>
   </si>
   <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
   </si>
   <si>
     <t>81,08%</t>
   </si>
   <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
   </si>
   <si>
     <t>20,12%</t>
   </si>
   <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
   </si>
   <si>
     <t>31,72%</t>
   </si>
   <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
   </si>
   <si>
     <t>25,91%</t>
   </si>
   <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
   </si>
   <si>
     <t>79,88%</t>
   </si>
   <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
   </si>
   <si>
     <t>68,28%</t>
   </si>
   <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
   </si>
   <si>
     <t>74,09%</t>
   </si>
   <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
   </si>
   <si>
     <t>23,43%</t>
   </si>
   <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
   </si>
   <si>
     <t>37,66%</t>
   </si>
   <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
   </si>
   <si>
     <t>31,9%</t>
   </si>
   <si>
-    <t>34,81%</t>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
   </si>
   <si>
     <t>76,57%</t>
   </si>
   <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
   </si>
   <si>
     <t>62,34%</t>
   </si>
   <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
   </si>
   <si>
     <t>68,1%</t>
   </si>
   <si>
-    <t>65,19%</t>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
   </si>
   <si>
     <t>25,72%</t>
   </si>
   <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
   </si>
   <si>
     <t>19,86%</t>
   </si>
   <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
   </si>
   <si>
     <t>86,77%</t>
   </si>
   <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
   </si>
   <si>
     <t>74,28%</t>
   </si>
   <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
   </si>
   <si>
     <t>80,14%</t>
   </si>
   <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
   </si>
 </sst>
 </file>
@@ -1689,7 +1701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341E16D5-248D-45CE-8E11-3A656C934466}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204B42AF-9860-4E5B-A845-F3D14A003CB0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2791,7 +2803,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -2821,7 +2833,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
@@ -2842,7 +2854,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -2872,7 +2884,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -2908,7 +2920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F469F6-B319-4CE5-8F51-A668B6A82977}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7504FBEB-4610-4A51-ABA9-8C6A3E4D0FE6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3342,13 +3354,13 @@
         <v>29160</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H10" s="7">
         <v>79</v>
@@ -3357,13 +3369,13 @@
         <v>83566</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M10" s="7">
         <v>107</v>
@@ -3372,13 +3384,13 @@
         <v>112726</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,13 +3405,13 @@
         <v>652703</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H11" s="7">
         <v>588</v>
@@ -3408,13 +3420,13 @@
         <v>627284</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M11" s="7">
         <v>1211</v>
@@ -3423,13 +3435,13 @@
         <v>1279986</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,13 +3509,13 @@
         <v>40662</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H13" s="7">
         <v>80</v>
@@ -3512,13 +3524,13 @@
         <v>89128</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M13" s="7">
         <v>117</v>
@@ -3527,13 +3539,13 @@
         <v>129791</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,13 +3560,13 @@
         <v>573955</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H14" s="7">
         <v>459</v>
@@ -3563,13 +3575,13 @@
         <v>527071</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>970</v>
@@ -3578,13 +3590,13 @@
         <v>1101025</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,13 +3664,13 @@
         <v>37310</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -3667,13 +3679,13 @@
         <v>95792</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M16" s="7">
         <v>124</v>
@@ -3682,13 +3694,13 @@
         <v>133102</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3715,13 @@
         <v>392119</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H17" s="7">
         <v>318</v>
@@ -3718,13 +3730,13 @@
         <v>352008</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M17" s="7">
         <v>675</v>
@@ -3733,13 +3745,13 @@
         <v>744127</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,13 +3819,13 @@
         <v>96930</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H19" s="7">
         <v>231</v>
@@ -3822,13 +3834,13 @@
         <v>249761</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M19" s="7">
         <v>319</v>
@@ -3837,13 +3849,13 @@
         <v>346691</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,13 +3870,13 @@
         <v>462707</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H20" s="7">
         <v>463</v>
@@ -3873,13 +3885,13 @@
         <v>493214</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M20" s="7">
         <v>879</v>
@@ -3888,13 +3900,13 @@
         <v>955921</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +3974,13 @@
         <v>228270</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H22" s="7">
         <v>536</v>
@@ -3977,13 +3989,13 @@
         <v>580234</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M22" s="7">
         <v>748</v>
@@ -3992,13 +4004,13 @@
         <v>808504</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,13 +4025,13 @@
         <v>3198509</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H23" s="7">
         <v>2762</v>
@@ -4028,13 +4040,13 @@
         <v>2978075</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M23" s="7">
         <v>5759</v>
@@ -4043,13 +4055,13 @@
         <v>6176584</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,7 +4139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8C97A1-3BB3-4362-8A6F-9739C2CC649C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688216EE-D7C1-4E96-AB2A-9EA68202FA24}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4144,7 +4156,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4251,13 +4263,13 @@
         <v>1990</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -4266,13 +4278,13 @@
         <v>13542</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4284,10 +4296,10 @@
         <v>183</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,13 +4344,13 @@
         <v>799686</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4406,13 +4418,13 @@
         <v>17858</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -4421,13 +4433,13 @@
         <v>37334</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="M7" s="7">
         <v>53</v>
@@ -4436,13 +4448,13 @@
         <v>55191</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,13 +4469,13 @@
         <v>572638</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="H8" s="7">
         <v>541</v>
@@ -4472,13 +4484,13 @@
         <v>526210</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M8" s="7">
         <v>1093</v>
@@ -4487,7 +4499,7 @@
         <v>1098849</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>203</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>204</v>
@@ -4722,7 +4734,7 @@
         <v>225</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>125</v>
+        <v>226</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -4731,13 +4743,13 @@
         <v>83622</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M13" s="7">
         <v>115</v>
@@ -4746,13 +4758,13 @@
         <v>125378</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,13 +4779,13 @@
         <v>604292</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>134</v>
+        <v>234</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H14" s="7">
         <v>525</v>
@@ -4782,13 +4794,13 @@
         <v>565455</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M14" s="7">
         <v>1069</v>
@@ -4797,13 +4809,13 @@
         <v>1169747</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,13 +4883,13 @@
         <v>58172</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H16" s="7">
         <v>78</v>
@@ -4886,13 +4898,13 @@
         <v>88759</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>243</v>
+        <v>131</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M16" s="7">
         <v>128</v>
@@ -4901,13 +4913,13 @@
         <v>146931</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4934,13 @@
         <v>419746</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H17" s="7">
         <v>355</v>
@@ -4937,7 +4949,7 @@
         <v>408090</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>252</v>
+        <v>139</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>253</v>
@@ -5029,10 +5041,10 @@
         <v>258</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H19" s="7">
         <v>150</v>
@@ -5041,13 +5053,13 @@
         <v>180283</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M19" s="7">
         <v>239</v>
@@ -5056,13 +5068,13 @@
         <v>263048</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5089,13 @@
         <v>508564</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="H20" s="7">
         <v>505</v>
@@ -5092,13 +5104,13 @@
         <v>597648</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M20" s="7">
         <v>1043</v>
@@ -5107,13 +5119,13 @@
         <v>1106211</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5193,13 @@
         <v>228026</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H22" s="7">
         <v>416</v>
@@ -5196,13 +5208,13 @@
         <v>462504</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>279</v>
+        <v>142</v>
       </c>
       <c r="M22" s="7">
         <v>633</v>
@@ -5211,13 +5223,13 @@
         <v>690530</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5244,13 @@
         <v>3166324</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H23" s="7">
         <v>2922</v>
@@ -5247,10 +5259,10 @@
         <v>3082038</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>287</v>
+        <v>152</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>288</v>
@@ -5346,7 +5358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56C1DE6-4497-427D-AB97-EE9C71E6760D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532170D3-90D4-4F1C-94EE-473E5EA7D8F1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5473,10 +5485,10 @@
         <v>293</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -5485,13 +5497,13 @@
         <v>56210</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -5500,10 +5512,10 @@
         <v>62929</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>300</v>
@@ -5527,7 +5539,7 @@
         <v>302</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>303</v>
+        <v>17</v>
       </c>
       <c r="H5" s="7">
         <v>177</v>
@@ -5536,13 +5548,13 @@
         <v>298747</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M5" s="7">
         <v>346</v>
@@ -5551,13 +5563,13 @@
         <v>669707</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,10 +5825,10 @@
         <v>333</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>334</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5843,13 @@
         <v>515178</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H11" s="7">
         <v>698</v>
@@ -5846,13 +5858,13 @@
         <v>509442</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M11" s="7">
         <v>1206</v>
@@ -5861,13 +5873,13 @@
         <v>1024621</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>122</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5935,13 +5947,13 @@
         <v>94918</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H13" s="7">
         <v>281</v>
@@ -5950,13 +5962,13 @@
         <v>183420</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M13" s="7">
         <v>371</v>
@@ -5965,13 +5977,13 @@
         <v>278338</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,13 +5998,13 @@
         <v>629072</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H14" s="7">
         <v>860</v>
@@ -6001,28 +6013,28 @@
         <v>563841</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M14" s="7">
         <v>1435</v>
       </c>
       <c r="N14" s="7">
-        <v>1192913</v>
+        <v>1192914</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6064,7 +6076,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -6090,13 +6102,13 @@
         <v>120731</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H16" s="7">
         <v>309</v>
@@ -6105,13 +6117,13 @@
         <v>189416</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M16" s="7">
         <v>439</v>
@@ -6120,13 +6132,13 @@
         <v>310147</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6141,13 +6153,13 @@
         <v>479426</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H17" s="7">
         <v>693</v>
@@ -6156,13 +6168,13 @@
         <v>407647</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M17" s="7">
         <v>1226</v>
@@ -6171,13 +6183,13 @@
         <v>887073</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6245,13 +6257,13 @@
         <v>163467</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H19" s="7">
         <v>717</v>
@@ -6260,13 +6272,13 @@
         <v>386621</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M19" s="7">
         <v>964</v>
@@ -6275,13 +6287,13 @@
         <v>550088</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6293,16 +6305,16 @@
         <v>781</v>
       </c>
       <c r="D20" s="7">
-        <v>534288</v>
+        <v>534287</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H20" s="7">
         <v>991</v>
@@ -6311,13 +6323,13 @@
         <v>640016</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M20" s="7">
         <v>1772</v>
@@ -6326,13 +6338,13 @@
         <v>1174304</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,7 +6356,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -6400,13 +6412,13 @@
         <v>447869</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H22" s="7">
         <v>1548</v>
@@ -6415,13 +6427,13 @@
         <v>986402</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M22" s="7">
         <v>2072</v>
@@ -6430,13 +6442,13 @@
         <v>1434271</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,13 +6463,13 @@
         <v>2937359</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H23" s="7">
         <v>3819</v>
@@ -6466,28 +6478,28 @@
         <v>2849179</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M23" s="7">
         <v>6671</v>
       </c>
       <c r="N23" s="7">
-        <v>5786537</v>
+        <v>5786538</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6529,7 +6541,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
